--- a/exp/data/exp2/13_TNT_experiment1_part2_new_2015_12_03_1307.xlsx
+++ b/exp/data/exp2/13_TNT_experiment1_part2_new_2015_12_03_1307.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snishiyama/Experiments/TNT-DP/exp/data/exp2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D56625F-CDA3-5E49-81FC-09BB642C067C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-765" yWindow="-465" windowWidth="12750" windowHeight="8655" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="8660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13_TNT_experiment1_part2_new_20" sheetId="1" r:id="rId1"/>
-    <sheet name="learn" sheetId="2" r:id="rId2"/>
+    <sheet name="learn_test" sheetId="2" r:id="rId2"/>
     <sheet name="tar_recall" sheetId="3" r:id="rId3"/>
     <sheet name="sub_recall" sheetId="4" r:id="rId4"/>
     <sheet name="DP" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DP!$A$1:$J$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">learn!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">learn_test!$A$1:$H$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sub_recall!$A$1:$H$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tar_recall!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2008,12 +2024,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2021,7 +2037,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2030,7 +2046,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -2039,7 +2055,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2048,7 +2064,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2057,7 +2073,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2065,7 +2081,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2073,7 +2089,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2081,7 +2097,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2089,7 +2105,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2098,7 +2114,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2107,7 +2123,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2115,7 +2131,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2124,7 +2140,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2132,7 +2148,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2141,7 +2157,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2150,7 +2166,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2158,14 +2174,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2620,48 +2636,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2678,12 +2694,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2725,7 +2744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2758,9 +2777,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2793,6 +2829,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2968,7 +3021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GP801"/>
   <sheetViews>
     <sheetView topLeftCell="EX1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2976,9 +3029,9 @@
       <selection pane="bottomLeft" activeCell="FH608" sqref="FH608:FJ743"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +3627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G2">
         <v>1</v>
       </c>
@@ -3603,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G3">
         <v>1</v>
       </c>
@@ -3632,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G4">
         <v>1</v>
       </c>
@@ -3661,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G5">
         <v>1</v>
       </c>
@@ -3690,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G6">
         <v>1</v>
       </c>
@@ -3719,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -3766,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -3813,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -3860,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -3907,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -3954,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -4001,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -4048,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -4095,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -4142,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -4189,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -4236,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -4283,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -4330,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -4377,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -4424,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -4471,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -4518,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -4565,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -4612,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -4659,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -4706,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -4753,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -4800,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -4847,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -4894,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -4941,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -4988,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -5035,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -5082,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -5129,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -5176,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -5223,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -5270,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -5317,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -5364,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -5411,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -5458,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -5505,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -5552,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -5599,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>200</v>
       </c>
@@ -5646,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -5693,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -5740,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -5787,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -5834,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -5881,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G53">
         <v>1</v>
       </c>
@@ -5910,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -5966,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -6022,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -6078,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>200</v>
       </c>
@@ -6134,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -6190,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>200</v>
       </c>
@@ -6246,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>200</v>
       </c>
@@ -6299,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>200</v>
       </c>
@@ -6352,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>200</v>
       </c>
@@ -6408,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -6461,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -6517,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>200</v>
       </c>
@@ -6573,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -6626,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -6682,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -6738,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -6791,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>200</v>
       </c>
@@ -6847,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -6900,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -6953,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>200</v>
       </c>
@@ -7009,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>200</v>
       </c>
@@ -7065,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -7121,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -7177,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -7233,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>200</v>
       </c>
@@ -7289,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>200</v>
       </c>
@@ -7342,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>200</v>
       </c>
@@ -7395,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>200</v>
       </c>
@@ -7448,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -7504,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -7560,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>200</v>
       </c>
@@ -7613,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -7669,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -7725,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -7781,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -7834,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>200</v>
       </c>
@@ -7890,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>200</v>
       </c>
@@ -7946,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>200</v>
       </c>
@@ -8002,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -8055,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -8111,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -8167,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -8223,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -8279,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -8332,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -8385,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -8438,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>200</v>
       </c>
@@ -8512,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -8580,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -8648,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -8716,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -8784,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -8852,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -8920,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>200</v>
       </c>
@@ -8985,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -9053,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -9121,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>200</v>
       </c>
@@ -9189,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>200</v>
       </c>
@@ -9257,7 +9310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>200</v>
       </c>
@@ -9325,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -9393,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>200</v>
       </c>
@@ -9461,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>200</v>
       </c>
@@ -9529,7 +9582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>200</v>
       </c>
@@ -9597,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -9665,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>200</v>
       </c>
@@ -9733,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>200</v>
       </c>
@@ -9801,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -9869,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -9937,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -10005,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>200</v>
       </c>
@@ -10070,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>200</v>
       </c>
@@ -10138,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>200</v>
       </c>
@@ -10206,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>200</v>
       </c>
@@ -10274,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -10342,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>200</v>
       </c>
@@ -10407,7 +10460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>200</v>
       </c>
@@ -10475,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>200</v>
       </c>
@@ -10543,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -10611,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>200</v>
       </c>
@@ -10679,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>200</v>
       </c>
@@ -10747,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>200</v>
       </c>
@@ -10815,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>200</v>
       </c>
@@ -10883,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>200</v>
       </c>
@@ -10951,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -11019,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>200</v>
       </c>
@@ -11087,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>200</v>
       </c>
@@ -11155,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -11223,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>200</v>
       </c>
@@ -11291,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -11359,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>200</v>
       </c>
@@ -11427,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>200</v>
       </c>
@@ -11495,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -11563,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G146">
         <v>1</v>
       </c>
@@ -11598,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G147">
         <v>1</v>
       </c>
@@ -11627,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G148">
         <v>1</v>
       </c>
@@ -11656,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G149">
         <v>1</v>
       </c>
@@ -11685,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G150">
         <v>1</v>
       </c>
@@ -11714,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>200</v>
       </c>
@@ -11773,7 +11826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>200</v>
       </c>
@@ -11832,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>200</v>
       </c>
@@ -11891,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>200</v>
       </c>
@@ -11950,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -12009,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>200</v>
       </c>
@@ -12068,7 +12121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>200</v>
       </c>
@@ -12127,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>200</v>
       </c>
@@ -12186,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>200</v>
       </c>
@@ -12245,7 +12298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>200</v>
       </c>
@@ -12304,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -12363,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -12422,7 +12475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>200</v>
       </c>
@@ -12481,7 +12534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>200</v>
       </c>
@@ -12540,7 +12593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -12599,7 +12652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>200</v>
       </c>
@@ -12658,7 +12711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -12717,7 +12770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>200</v>
       </c>
@@ -12776,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>200</v>
       </c>
@@ -12835,7 +12888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>200</v>
       </c>
@@ -12894,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>200</v>
       </c>
@@ -12953,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>200</v>
       </c>
@@ -13012,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>200</v>
       </c>
@@ -13071,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -13130,7 +13183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -13189,7 +13242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>200</v>
       </c>
@@ -13248,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>200</v>
       </c>
@@ -13307,7 +13360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
@@ -13366,7 +13419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -13425,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -13484,7 +13537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -13543,7 +13596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -13602,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -13661,7 +13714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -13720,7 +13773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -13779,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -13835,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -13894,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -13953,7 +14006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -14012,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>200</v>
       </c>
@@ -14071,7 +14124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -14130,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -14189,7 +14242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -14248,7 +14301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G194">
         <v>1</v>
       </c>
@@ -14277,7 +14330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G195">
         <v>1</v>
       </c>
@@ -14306,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G196">
         <v>1</v>
       </c>
@@ -14335,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G197">
         <v>1</v>
       </c>
@@ -14364,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G198">
         <v>1</v>
       </c>
@@ -14393,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G199">
         <v>1</v>
       </c>
@@ -14422,7 +14475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>291</v>
       </c>
@@ -14466,7 +14519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>231</v>
       </c>
@@ -14510,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>239</v>
       </c>
@@ -14554,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>205</v>
       </c>
@@ -14598,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>261</v>
       </c>
@@ -14642,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>201</v>
       </c>
@@ -14686,7 +14739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>239</v>
       </c>
@@ -14730,7 +14783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>257</v>
       </c>
@@ -14774,7 +14827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>259</v>
       </c>
@@ -14818,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>239</v>
       </c>
@@ -14862,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>239</v>
       </c>
@@ -14906,7 +14959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>257</v>
       </c>
@@ -14950,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>233</v>
       </c>
@@ -14994,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>229</v>
       </c>
@@ -15038,7 +15091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>257</v>
       </c>
@@ -15082,7 +15135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>257</v>
       </c>
@@ -15126,7 +15179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G216">
         <v>1</v>
       </c>
@@ -15155,7 +15208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G217">
         <v>1</v>
       </c>
@@ -15184,7 +15237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G218">
         <v>1</v>
       </c>
@@ -15213,7 +15266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G219">
         <v>1</v>
       </c>
@@ -15242,7 +15295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G220">
         <v>1</v>
       </c>
@@ -15271,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>263</v>
       </c>
@@ -15315,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>239</v>
       </c>
@@ -15359,7 +15412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>285</v>
       </c>
@@ -15403,7 +15456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>269</v>
       </c>
@@ -15447,7 +15500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>235</v>
       </c>
@@ -15491,7 +15544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>279</v>
       </c>
@@ -15535,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>273</v>
       </c>
@@ -15579,7 +15632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>253</v>
       </c>
@@ -15623,7 +15676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>247</v>
       </c>
@@ -15667,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>255</v>
       </c>
@@ -15711,7 +15764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>215</v>
       </c>
@@ -15755,7 +15808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>257</v>
       </c>
@@ -15799,7 +15852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>223</v>
       </c>
@@ -15843,7 +15896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>221</v>
       </c>
@@ -15887,7 +15940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G235">
         <v>1</v>
       </c>
@@ -15916,7 +15969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G236">
         <v>1</v>
       </c>
@@ -15945,7 +15998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>239</v>
       </c>
@@ -15989,7 +16042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>291</v>
       </c>
@@ -16033,7 +16086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>257</v>
       </c>
@@ -16077,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>261</v>
       </c>
@@ -16121,7 +16174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>229</v>
       </c>
@@ -16165,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>239</v>
       </c>
@@ -16209,7 +16262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>233</v>
       </c>
@@ -16253,7 +16306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>239</v>
       </c>
@@ -16297,7 +16350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>201</v>
       </c>
@@ -16341,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>259</v>
       </c>
@@ -16385,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>239</v>
       </c>
@@ -16429,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>257</v>
       </c>
@@ -16473,7 +16526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>231</v>
       </c>
@@ -16517,7 +16570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>257</v>
       </c>
@@ -16561,7 +16614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>257</v>
       </c>
@@ -16605,7 +16658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>205</v>
       </c>
@@ -16649,7 +16702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G253">
         <v>1</v>
       </c>
@@ -16678,7 +16731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G254">
         <v>1</v>
       </c>
@@ -16707,7 +16760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G255">
         <v>1</v>
       </c>
@@ -16736,7 +16789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G256">
         <v>1</v>
       </c>
@@ -16765,7 +16818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>231</v>
       </c>
@@ -16809,7 +16862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>257</v>
       </c>
@@ -16853,7 +16906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>233</v>
       </c>
@@ -16897,7 +16950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>259</v>
       </c>
@@ -16941,7 +16994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>257</v>
       </c>
@@ -16985,7 +17038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>257</v>
       </c>
@@ -17029,7 +17082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>205</v>
       </c>
@@ -17073,7 +17126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>239</v>
       </c>
@@ -17117,7 +17170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>229</v>
       </c>
@@ -17161,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>257</v>
       </c>
@@ -17205,7 +17258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>291</v>
       </c>
@@ -17249,7 +17302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>239</v>
       </c>
@@ -17293,7 +17346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>261</v>
       </c>
@@ -17337,7 +17390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>239</v>
       </c>
@@ -17381,7 +17434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>201</v>
       </c>
@@ -17425,7 +17478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>239</v>
       </c>
@@ -17469,7 +17522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G273">
         <v>1</v>
       </c>
@@ -17498,7 +17551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>235</v>
       </c>
@@ -17542,7 +17595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>273</v>
       </c>
@@ -17586,7 +17639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>285</v>
       </c>
@@ -17630,7 +17683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>253</v>
       </c>
@@ -17674,7 +17727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>279</v>
       </c>
@@ -17718,7 +17771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>223</v>
       </c>
@@ -17762,7 +17815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>263</v>
       </c>
@@ -17806,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>247</v>
       </c>
@@ -17850,7 +17903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>269</v>
       </c>
@@ -17894,7 +17947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>215</v>
       </c>
@@ -17938,7 +17991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>257</v>
       </c>
@@ -17982,7 +18035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>239</v>
       </c>
@@ -18026,7 +18079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>255</v>
       </c>
@@ -18070,7 +18123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>221</v>
       </c>
@@ -18114,7 +18167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>263</v>
       </c>
@@ -18176,7 +18229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>245</v>
       </c>
@@ -18232,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>223</v>
       </c>
@@ -18288,7 +18341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>215</v>
       </c>
@@ -18344,7 +18397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>283</v>
       </c>
@@ -18400,7 +18453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>285</v>
       </c>
@@ -18456,7 +18509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>249</v>
       </c>
@@ -18512,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>217</v>
       </c>
@@ -18568,7 +18621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>269</v>
       </c>
@@ -18624,7 +18677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>211</v>
       </c>
@@ -18680,7 +18733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>221</v>
       </c>
@@ -18736,7 +18789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>227</v>
       </c>
@@ -18792,7 +18845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>267</v>
       </c>
@@ -18848,7 +18901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>253</v>
       </c>
@@ -18904,7 +18957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>279</v>
       </c>
@@ -18960,7 +19013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>255</v>
       </c>
@@ -19016,7 +19069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>247</v>
       </c>
@@ -19072,7 +19125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>251</v>
       </c>
@@ -19128,7 +19181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>289</v>
       </c>
@@ -19184,7 +19237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>209</v>
       </c>
@@ -19240,7 +19293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>273</v>
       </c>
@@ -19296,7 +19349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>213</v>
       </c>
@@ -19352,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>243</v>
       </c>
@@ -19408,7 +19461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>235</v>
       </c>
@@ -19464,7 +19517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G312">
         <v>1</v>
       </c>
@@ -19499,7 +19552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>267</v>
       </c>
@@ -19558,7 +19611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>217</v>
       </c>
@@ -19614,7 +19667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>263</v>
       </c>
@@ -19670,7 +19723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>209</v>
       </c>
@@ -19726,7 +19779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>243</v>
       </c>
@@ -19782,7 +19835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>285</v>
       </c>
@@ -19838,7 +19891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>279</v>
       </c>
@@ -19894,7 +19947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>251</v>
       </c>
@@ -19950,7 +20003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>269</v>
       </c>
@@ -20006,7 +20059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>235</v>
       </c>
@@ -20062,7 +20115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>255</v>
       </c>
@@ -20118,7 +20171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>245</v>
       </c>
@@ -20174,7 +20227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>253</v>
       </c>
@@ -20230,7 +20283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>223</v>
       </c>
@@ -20286,7 +20339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>221</v>
       </c>
@@ -20342,7 +20395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>247</v>
       </c>
@@ -20398,7 +20451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>215</v>
       </c>
@@ -20454,7 +20507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>227</v>
       </c>
@@ -20510,7 +20563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>283</v>
       </c>
@@ -20566,7 +20619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>211</v>
       </c>
@@ -20622,7 +20675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>289</v>
       </c>
@@ -20678,7 +20731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>273</v>
       </c>
@@ -20734,7 +20787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>213</v>
       </c>
@@ -20790,7 +20843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>249</v>
       </c>
@@ -20846,7 +20899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G337">
         <v>1</v>
       </c>
@@ -20881,7 +20934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>251</v>
       </c>
@@ -20940,7 +20993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>215</v>
       </c>
@@ -20996,7 +21049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>227</v>
       </c>
@@ -21052,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>255</v>
       </c>
@@ -21108,7 +21161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>209</v>
       </c>
@@ -21164,7 +21217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>217</v>
       </c>
@@ -21220,7 +21273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>273</v>
       </c>
@@ -21276,7 +21329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>221</v>
       </c>
@@ -21332,7 +21385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>253</v>
       </c>
@@ -21388,7 +21441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>213</v>
       </c>
@@ -21444,7 +21497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>267</v>
       </c>
@@ -21500,7 +21553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>247</v>
       </c>
@@ -21556,7 +21609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>223</v>
       </c>
@@ -21612,7 +21665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>243</v>
       </c>
@@ -21668,7 +21721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>245</v>
       </c>
@@ -21724,7 +21777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>289</v>
       </c>
@@ -21780,7 +21833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>235</v>
       </c>
@@ -21836,7 +21889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>263</v>
       </c>
@@ -21892,7 +21945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>249</v>
       </c>
@@ -21948,7 +22001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>283</v>
       </c>
@@ -22004,7 +22057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>285</v>
       </c>
@@ -22060,7 +22113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>279</v>
       </c>
@@ -22116,7 +22169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>211</v>
       </c>
@@ -22172,7 +22225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>269</v>
       </c>
@@ -22228,7 +22281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G362">
         <v>1</v>
       </c>
@@ -22263,7 +22316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>289</v>
       </c>
@@ -22325,7 +22378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>285</v>
       </c>
@@ -22381,7 +22434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>253</v>
       </c>
@@ -22437,7 +22490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>249</v>
       </c>
@@ -22493,7 +22546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>269</v>
       </c>
@@ -22549,7 +22602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>255</v>
       </c>
@@ -22605,7 +22658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>245</v>
       </c>
@@ -22661,7 +22714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>221</v>
       </c>
@@ -22717,7 +22770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>227</v>
       </c>
@@ -22773,7 +22826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>263</v>
       </c>
@@ -22829,7 +22882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>267</v>
       </c>
@@ -22885,7 +22938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>243</v>
       </c>
@@ -22941,7 +22994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>223</v>
       </c>
@@ -22997,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>235</v>
       </c>
@@ -23053,7 +23106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>273</v>
       </c>
@@ -23109,7 +23162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>247</v>
       </c>
@@ -23165,7 +23218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>215</v>
       </c>
@@ -23221,7 +23274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>279</v>
       </c>
@@ -23277,7 +23330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>213</v>
       </c>
@@ -23333,7 +23386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>209</v>
       </c>
@@ -23389,7 +23442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>211</v>
       </c>
@@ -23445,7 +23498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>251</v>
       </c>
@@ -23501,7 +23554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>217</v>
       </c>
@@ -23557,7 +23610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>283</v>
       </c>
@@ -23613,7 +23666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G387">
         <v>1</v>
       </c>
@@ -23648,7 +23701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>279</v>
       </c>
@@ -23707,7 +23760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>251</v>
       </c>
@@ -23763,7 +23816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>285</v>
       </c>
@@ -23819,7 +23872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>283</v>
       </c>
@@ -23875,7 +23928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>269</v>
       </c>
@@ -23931,7 +23984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>217</v>
       </c>
@@ -23987,7 +24040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>211</v>
       </c>
@@ -24043,7 +24096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>273</v>
       </c>
@@ -24099,7 +24152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>223</v>
       </c>
@@ -24155,7 +24208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>253</v>
       </c>
@@ -24211,7 +24264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>215</v>
       </c>
@@ -24267,7 +24320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>235</v>
       </c>
@@ -24323,7 +24376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>255</v>
       </c>
@@ -24379,7 +24432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>249</v>
       </c>
@@ -24435,7 +24488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>209</v>
       </c>
@@ -24491,7 +24544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>243</v>
       </c>
@@ -24547,7 +24600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>247</v>
       </c>
@@ -24603,7 +24656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>267</v>
       </c>
@@ -24659,7 +24712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>263</v>
       </c>
@@ -24715,7 +24768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>245</v>
       </c>
@@ -24771,7 +24824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>227</v>
       </c>
@@ -24827,7 +24880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>221</v>
       </c>
@@ -24883,7 +24936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>213</v>
       </c>
@@ -24939,7 +24992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>289</v>
       </c>
@@ -24995,7 +25048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G412">
         <v>1</v>
       </c>
@@ -25030,7 +25083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>279</v>
       </c>
@@ -25089,7 +25142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>235</v>
       </c>
@@ -25145,7 +25198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>253</v>
       </c>
@@ -25201,7 +25254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>217</v>
       </c>
@@ -25257,7 +25310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>285</v>
       </c>
@@ -25313,7 +25366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>263</v>
       </c>
@@ -25369,7 +25422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>273</v>
       </c>
@@ -25425,7 +25478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>267</v>
       </c>
@@ -25481,7 +25534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>249</v>
       </c>
@@ -25537,7 +25590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>223</v>
       </c>
@@ -25593,7 +25646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>269</v>
       </c>
@@ -25649,7 +25702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>215</v>
       </c>
@@ -25705,7 +25758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>227</v>
       </c>
@@ -25761,7 +25814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>221</v>
       </c>
@@ -25817,7 +25870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>255</v>
       </c>
@@ -25873,7 +25926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>245</v>
       </c>
@@ -25929,7 +25982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>289</v>
       </c>
@@ -25985,7 +26038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>209</v>
       </c>
@@ -26041,7 +26094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>243</v>
       </c>
@@ -26097,7 +26150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>251</v>
       </c>
@@ -26153,7 +26206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>247</v>
       </c>
@@ -26209,7 +26262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>213</v>
       </c>
@@ -26265,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>211</v>
       </c>
@@ -26321,7 +26374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>283</v>
       </c>
@@ -26377,7 +26430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>239</v>
       </c>
@@ -26451,7 +26504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>263</v>
       </c>
@@ -26519,7 +26572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>255</v>
       </c>
@@ -26587,7 +26640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>223</v>
       </c>
@@ -26655,7 +26708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>285</v>
       </c>
@@ -26723,7 +26776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>253</v>
       </c>
@@ -26791,7 +26844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>247</v>
       </c>
@@ -26859,7 +26912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>279</v>
       </c>
@@ -26927,7 +26980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>215</v>
       </c>
@@ -26995,7 +27048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>273</v>
       </c>
@@ -27063,7 +27116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>257</v>
       </c>
@@ -27131,7 +27184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>269</v>
       </c>
@@ -27199,7 +27252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>235</v>
       </c>
@@ -27267,7 +27320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>221</v>
       </c>
@@ -27335,7 +27388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G451">
         <v>1</v>
       </c>
@@ -27382,7 +27435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G452">
         <v>1</v>
       </c>
@@ -27417,7 +27470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>289</v>
       </c>
@@ -27479,7 +27532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>255</v>
       </c>
@@ -27535,7 +27588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>221</v>
       </c>
@@ -27591,7 +27644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>217</v>
       </c>
@@ -27647,7 +27700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>243</v>
       </c>
@@ -27703,7 +27756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>223</v>
       </c>
@@ -27759,7 +27812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>245</v>
       </c>
@@ -27815,7 +27868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>253</v>
       </c>
@@ -27871,7 +27924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>227</v>
       </c>
@@ -27927,7 +27980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>249</v>
       </c>
@@ -27983,7 +28036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>209</v>
       </c>
@@ -28039,7 +28092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>215</v>
       </c>
@@ -28095,7 +28148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>213</v>
       </c>
@@ -28151,7 +28204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>273</v>
       </c>
@@ -28207,7 +28260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>247</v>
       </c>
@@ -28263,7 +28316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>279</v>
       </c>
@@ -28319,7 +28372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>283</v>
       </c>
@@ -28375,7 +28428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>251</v>
       </c>
@@ -28431,7 +28484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>269</v>
       </c>
@@ -28487,7 +28540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>285</v>
       </c>
@@ -28543,7 +28596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>235</v>
       </c>
@@ -28599,7 +28652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>263</v>
       </c>
@@ -28655,7 +28708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>211</v>
       </c>
@@ -28711,7 +28764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>267</v>
       </c>
@@ -28767,7 +28820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G477">
         <v>1</v>
       </c>
@@ -28802,7 +28855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>247</v>
       </c>
@@ -28861,7 +28914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>255</v>
       </c>
@@ -28917,7 +28970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>215</v>
       </c>
@@ -28973,7 +29026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>223</v>
       </c>
@@ -29029,7 +29082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>269</v>
       </c>
@@ -29085,7 +29138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>253</v>
       </c>
@@ -29141,7 +29194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>243</v>
       </c>
@@ -29197,7 +29250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>263</v>
       </c>
@@ -29253,7 +29306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>227</v>
       </c>
@@ -29309,7 +29362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>285</v>
       </c>
@@ -29365,7 +29418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>283</v>
       </c>
@@ -29421,7 +29474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>209</v>
       </c>
@@ -29477,7 +29530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>211</v>
       </c>
@@ -29533,7 +29586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>235</v>
       </c>
@@ -29589,7 +29642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>217</v>
       </c>
@@ -29645,7 +29698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>249</v>
       </c>
@@ -29701,7 +29754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>245</v>
       </c>
@@ -29757,7 +29810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>289</v>
       </c>
@@ -29813,7 +29866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>267</v>
       </c>
@@ -29869,7 +29922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>251</v>
       </c>
@@ -29925,7 +29978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>279</v>
       </c>
@@ -29981,7 +30034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>221</v>
       </c>
@@ -30037,7 +30090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>213</v>
       </c>
@@ -30093,7 +30146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>273</v>
       </c>
@@ -30149,7 +30202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G502">
         <v>1</v>
       </c>
@@ -30184,7 +30237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>269</v>
       </c>
@@ -30243,7 +30296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>289</v>
       </c>
@@ -30299,7 +30352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
         <v>251</v>
       </c>
@@ -30355,7 +30408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>235</v>
       </c>
@@ -30411,7 +30464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>273</v>
       </c>
@@ -30467,7 +30520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>223</v>
       </c>
@@ -30523,7 +30576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>209</v>
       </c>
@@ -30579,7 +30632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B510" t="s">
         <v>263</v>
       </c>
@@ -30635,7 +30688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>247</v>
       </c>
@@ -30691,7 +30744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>249</v>
       </c>
@@ -30747,7 +30800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>253</v>
       </c>
@@ -30803,7 +30856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>267</v>
       </c>
@@ -30859,7 +30912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>279</v>
       </c>
@@ -30915,7 +30968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>215</v>
       </c>
@@ -30971,7 +31024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>245</v>
       </c>
@@ -31027,7 +31080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>285</v>
       </c>
@@ -31083,7 +31136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>243</v>
       </c>
@@ -31139,7 +31192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>211</v>
       </c>
@@ -31195,7 +31248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>227</v>
       </c>
@@ -31251,7 +31304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>221</v>
       </c>
@@ -31307,7 +31360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B523" t="s">
         <v>213</v>
       </c>
@@ -31363,7 +31416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>283</v>
       </c>
@@ -31419,7 +31472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>255</v>
       </c>
@@ -31475,7 +31528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>217</v>
       </c>
@@ -31531,7 +31584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G527">
         <v>1</v>
       </c>
@@ -31566,7 +31619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>249</v>
       </c>
@@ -31628,7 +31681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B529" t="s">
         <v>279</v>
       </c>
@@ -31684,7 +31737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B530" t="s">
         <v>273</v>
       </c>
@@ -31740,7 +31793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>269</v>
       </c>
@@ -31796,7 +31849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B532" t="s">
         <v>283</v>
       </c>
@@ -31852,7 +31905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
         <v>263</v>
       </c>
@@ -31908,7 +31961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
         <v>243</v>
       </c>
@@ -31964,7 +32017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B535" t="s">
         <v>247</v>
       </c>
@@ -32020,7 +32073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
         <v>215</v>
       </c>
@@ -32076,7 +32129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>245</v>
       </c>
@@ -32132,7 +32185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
         <v>285</v>
       </c>
@@ -32188,7 +32241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>289</v>
       </c>
@@ -32244,7 +32297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
         <v>209</v>
       </c>
@@ -32300,7 +32353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
         <v>235</v>
       </c>
@@ -32356,7 +32409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
         <v>223</v>
       </c>
@@ -32412,7 +32465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
         <v>221</v>
       </c>
@@ -32468,7 +32521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
         <v>255</v>
       </c>
@@ -32524,7 +32577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
         <v>227</v>
       </c>
@@ -32580,7 +32633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B546" t="s">
         <v>267</v>
       </c>
@@ -32636,7 +32689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
         <v>253</v>
       </c>
@@ -32692,7 +32745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
         <v>211</v>
       </c>
@@ -32748,7 +32801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
         <v>251</v>
       </c>
@@ -32804,7 +32857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>217</v>
       </c>
@@ -32860,7 +32913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
         <v>213</v>
       </c>
@@ -32916,7 +32969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G552">
         <v>1</v>
       </c>
@@ -32951,7 +33004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
         <v>223</v>
       </c>
@@ -33010,7 +33063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
         <v>245</v>
       </c>
@@ -33066,7 +33119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
         <v>279</v>
       </c>
@@ -33122,7 +33175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
         <v>263</v>
       </c>
@@ -33178,7 +33231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B557" t="s">
         <v>253</v>
       </c>
@@ -33234,7 +33287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
         <v>235</v>
       </c>
@@ -33290,7 +33343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B559" t="s">
         <v>247</v>
       </c>
@@ -33346,7 +33399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="560" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B560" t="s">
         <v>211</v>
       </c>
@@ -33402,7 +33455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="561" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>273</v>
       </c>
@@ -33458,7 +33511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B562" t="s">
         <v>227</v>
       </c>
@@ -33514,7 +33567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="563" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>217</v>
       </c>
@@ -33570,7 +33623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="564" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>249</v>
       </c>
@@ -33626,7 +33679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="565" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
         <v>283</v>
       </c>
@@ -33682,7 +33735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="566" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>267</v>
       </c>
@@ -33738,7 +33791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="567" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>221</v>
       </c>
@@ -33794,7 +33847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="568" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B568" t="s">
         <v>289</v>
       </c>
@@ -33850,7 +33903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="569" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B569" t="s">
         <v>243</v>
       </c>
@@ -33906,7 +33959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="570" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B570" t="s">
         <v>213</v>
       </c>
@@ -33962,7 +34015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="571" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B571" t="s">
         <v>215</v>
       </c>
@@ -34018,7 +34071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="572" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B572" t="s">
         <v>255</v>
       </c>
@@ -34074,7 +34127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B573" t="s">
         <v>269</v>
       </c>
@@ -34130,7 +34183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B574" t="s">
         <v>285</v>
       </c>
@@ -34186,7 +34239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B575" t="s">
         <v>251</v>
       </c>
@@ -34242,7 +34295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B576" t="s">
         <v>209</v>
       </c>
@@ -34298,7 +34351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="577" spans="2:198" x14ac:dyDescent="0.2">
       <c r="G577">
         <v>1</v>
       </c>
@@ -34333,7 +34386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="578" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B578" t="s">
         <v>235</v>
       </c>
@@ -34392,7 +34445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="579" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B579" t="s">
         <v>213</v>
       </c>
@@ -34448,7 +34501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="580" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B580" t="s">
         <v>223</v>
       </c>
@@ -34504,7 +34557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="581" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B581" t="s">
         <v>267</v>
       </c>
@@ -34560,7 +34613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="582" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B582" t="s">
         <v>243</v>
       </c>
@@ -34616,7 +34669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="583" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B583" t="s">
         <v>215</v>
       </c>
@@ -34672,7 +34725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="584" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B584" t="s">
         <v>285</v>
       </c>
@@ -34728,7 +34781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="585" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B585" t="s">
         <v>279</v>
       </c>
@@ -34784,7 +34837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="586" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B586" t="s">
         <v>249</v>
       </c>
@@ -34840,7 +34893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="587" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B587" t="s">
         <v>247</v>
       </c>
@@ -34896,7 +34949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="588" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B588" t="s">
         <v>263</v>
       </c>
@@ -34952,7 +35005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="589" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B589" t="s">
         <v>245</v>
       </c>
@@ -35008,7 +35061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="590" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B590" t="s">
         <v>255</v>
       </c>
@@ -35064,7 +35117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="591" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B591" t="s">
         <v>221</v>
       </c>
@@ -35120,7 +35173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="2:198" x14ac:dyDescent="0.15">
+    <row r="592" spans="2:198" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
         <v>209</v>
       </c>
@@ -35176,7 +35229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B593" t="s">
         <v>211</v>
       </c>
@@ -35232,7 +35285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B594" t="s">
         <v>273</v>
       </c>
@@ -35288,7 +35341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B595" t="s">
         <v>253</v>
       </c>
@@ -35344,7 +35397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B596" t="s">
         <v>283</v>
       </c>
@@ -35400,7 +35453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B597" t="s">
         <v>227</v>
       </c>
@@ -35456,7 +35509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B598" t="s">
         <v>269</v>
       </c>
@@ -35512,7 +35565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B599" t="s">
         <v>289</v>
       </c>
@@ -35568,7 +35621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B600" t="s">
         <v>217</v>
       </c>
@@ -35624,7 +35677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:198" x14ac:dyDescent="0.2">
       <c r="B601" t="s">
         <v>251</v>
       </c>
@@ -35680,7 +35733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G602">
         <v>1</v>
       </c>
@@ -35715,7 +35768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G603">
         <v>1</v>
       </c>
@@ -35744,7 +35797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G604">
         <v>1</v>
       </c>
@@ -35773,7 +35826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G605">
         <v>1</v>
       </c>
@@ -35802,7 +35855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G606">
         <v>1</v>
       </c>
@@ -35840,7 +35893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G607">
         <v>1</v>
       </c>
@@ -35869,7 +35922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>353</v>
       </c>
@@ -35934,7 +35987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>353</v>
       </c>
@@ -35999,7 +36052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>361</v>
       </c>
@@ -36064,7 +36117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>353</v>
       </c>
@@ -36129,7 +36182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>353</v>
       </c>
@@ -36194,7 +36247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>353</v>
       </c>
@@ -36259,7 +36312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>353</v>
       </c>
@@ -36324,7 +36377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>353</v>
       </c>
@@ -36389,7 +36442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>353</v>
       </c>
@@ -36454,7 +36507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>361</v>
       </c>
@@ -36519,7 +36572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>353</v>
       </c>
@@ -36584,7 +36637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>361</v>
       </c>
@@ -36649,7 +36702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>353</v>
       </c>
@@ -36714,7 +36767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>353</v>
       </c>
@@ -36779,7 +36832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>361</v>
       </c>
@@ -36844,7 +36897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>361</v>
       </c>
@@ -36909,7 +36962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>361</v>
       </c>
@@ -36974,7 +37027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>361</v>
       </c>
@@ -37039,7 +37092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>361</v>
       </c>
@@ -37104,7 +37157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>361</v>
       </c>
@@ -37169,7 +37222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>361</v>
       </c>
@@ -37234,7 +37287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>361</v>
       </c>
@@ -37299,7 +37352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>353</v>
       </c>
@@ -37364,7 +37417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>361</v>
       </c>
@@ -37429,7 +37482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>353</v>
       </c>
@@ -37494,7 +37547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>353</v>
       </c>
@@ -37559,7 +37612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>353</v>
       </c>
@@ -37624,7 +37677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>361</v>
       </c>
@@ -37689,7 +37742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>353</v>
       </c>
@@ -37754,7 +37807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>361</v>
       </c>
@@ -37819,7 +37872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>353</v>
       </c>
@@ -37884,7 +37937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>361</v>
       </c>
@@ -37949,7 +38002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>361</v>
       </c>
@@ -38014,7 +38067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>361</v>
       </c>
@@ -38079,7 +38132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>361</v>
       </c>
@@ -38144,7 +38197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>353</v>
       </c>
@@ -38209,7 +38262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>361</v>
       </c>
@@ -38274,7 +38327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>361</v>
       </c>
@@ -38339,7 +38392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>353</v>
       </c>
@@ -38404,7 +38457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>361</v>
       </c>
@@ -38481,7 +38534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>353</v>
       </c>
@@ -38546,7 +38599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>361</v>
       </c>
@@ -38611,7 +38664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>353</v>
       </c>
@@ -38676,7 +38729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>361</v>
       </c>
@@ -38741,7 +38794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>353</v>
       </c>
@@ -38806,7 +38859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>353</v>
       </c>
@@ -38871,7 +38924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>353</v>
       </c>
@@ -38936,7 +38989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>353</v>
       </c>
@@ -39001,7 +39054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>361</v>
       </c>
@@ -39066,7 +39119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>361</v>
       </c>
@@ -39131,7 +39184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>353</v>
       </c>
@@ -39196,7 +39249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>353</v>
       </c>
@@ -39261,7 +39314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>361</v>
       </c>
@@ -39326,7 +39379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>353</v>
       </c>
@@ -39391,7 +39444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>353</v>
       </c>
@@ -39456,7 +39509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>353</v>
       </c>
@@ -39521,7 +39574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>353</v>
       </c>
@@ -39586,7 +39639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>361</v>
       </c>
@@ -39651,7 +39704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>353</v>
       </c>
@@ -39716,7 +39769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>361</v>
       </c>
@@ -39781,7 +39834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>361</v>
       </c>
@@ -39846,7 +39899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>353</v>
       </c>
@@ -39911,7 +39964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>353</v>
       </c>
@@ -39976,7 +40029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>353</v>
       </c>
@@ -40041,7 +40094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>353</v>
       </c>
@@ -40106,7 +40159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>361</v>
       </c>
@@ -40171,7 +40224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>361</v>
       </c>
@@ -40236,7 +40289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>361</v>
       </c>
@@ -40301,7 +40354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>361</v>
       </c>
@@ -40366,7 +40419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>353</v>
       </c>
@@ -40431,7 +40484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>353</v>
       </c>
@@ -40496,7 +40549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>353</v>
       </c>
@@ -40561,7 +40614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>361</v>
       </c>
@@ -40626,7 +40679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>353</v>
       </c>
@@ -40691,7 +40744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>353</v>
       </c>
@@ -40756,7 +40809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>361</v>
       </c>
@@ -40821,7 +40874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>361</v>
       </c>
@@ -40886,7 +40939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>361</v>
       </c>
@@ -40951,7 +41004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>353</v>
       </c>
@@ -41016,7 +41069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>353</v>
       </c>
@@ -41081,7 +41134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>353</v>
       </c>
@@ -41146,7 +41199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>361</v>
       </c>
@@ -41211,7 +41264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>361</v>
       </c>
@@ -41276,7 +41329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>353</v>
       </c>
@@ -41341,7 +41394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>353</v>
       </c>
@@ -41406,7 +41459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>361</v>
       </c>
@@ -41471,7 +41524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>353</v>
       </c>
@@ -41536,7 +41589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>353</v>
       </c>
@@ -41613,7 +41666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>361</v>
       </c>
@@ -41678,7 +41731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>361</v>
       </c>
@@ -41743,7 +41796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>361</v>
       </c>
@@ -41808,7 +41861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>361</v>
       </c>
@@ -41873,7 +41926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>361</v>
       </c>
@@ -41938,7 +41991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>361</v>
       </c>
@@ -42003,7 +42056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>353</v>
       </c>
@@ -42068,7 +42121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>361</v>
       </c>
@@ -42133,7 +42186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>361</v>
       </c>
@@ -42198,7 +42251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>353</v>
       </c>
@@ -42263,7 +42316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>361</v>
       </c>
@@ -42328,7 +42381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>361</v>
       </c>
@@ -42393,7 +42446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>361</v>
       </c>
@@ -42458,7 +42511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>361</v>
       </c>
@@ -42523,7 +42576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>353</v>
       </c>
@@ -42588,7 +42641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>361</v>
       </c>
@@ -42653,7 +42706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>361</v>
       </c>
@@ -42718,7 +42771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>353</v>
       </c>
@@ -42783,7 +42836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>353</v>
       </c>
@@ -42848,7 +42901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>353</v>
       </c>
@@ -42913,7 +42966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>353</v>
       </c>
@@ -42978,7 +43031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>361</v>
       </c>
@@ -43043,7 +43096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>353</v>
       </c>
@@ -43108,7 +43161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>353</v>
       </c>
@@ -43173,7 +43226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>361</v>
       </c>
@@ -43238,7 +43291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>353</v>
       </c>
@@ -43303,7 +43356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>353</v>
       </c>
@@ -43368,7 +43421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>353</v>
       </c>
@@ -43433,7 +43486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>361</v>
       </c>
@@ -43498,7 +43551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>353</v>
       </c>
@@ -43563,7 +43616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>361</v>
       </c>
@@ -43628,7 +43681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>353</v>
       </c>
@@ -43693,7 +43746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>361</v>
       </c>
@@ -43758,7 +43811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>361</v>
       </c>
@@ -43823,7 +43876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>361</v>
       </c>
@@ -43888,7 +43941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>353</v>
       </c>
@@ -43953,7 +44006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>353</v>
       </c>
@@ -44018,7 +44071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>361</v>
       </c>
@@ -44083,7 +44136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>353</v>
       </c>
@@ -44148,7 +44201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>361</v>
       </c>
@@ -44213,7 +44266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>353</v>
       </c>
@@ -44278,7 +44331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>353</v>
       </c>
@@ -44343,7 +44396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>361</v>
       </c>
@@ -44408,7 +44461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>361</v>
       </c>
@@ -44473,7 +44526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>361</v>
       </c>
@@ -44538,7 +44591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>361</v>
       </c>
@@ -44603,7 +44656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>353</v>
       </c>
@@ -44668,7 +44721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>361</v>
       </c>
@@ -44733,7 +44786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G744">
         <v>1</v>
       </c>
@@ -44762,7 +44815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G745">
         <v>1</v>
       </c>
@@ -44791,7 +44844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G746">
         <v>1</v>
       </c>
@@ -44820,7 +44873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G747">
         <v>1</v>
       </c>
@@ -44849,7 +44902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G748">
         <v>1</v>
       </c>
@@ -44875,7 +44928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>200</v>
       </c>
@@ -44934,7 +44987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>200</v>
       </c>
@@ -44993,7 +45046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>200</v>
       </c>
@@ -45052,7 +45105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>200</v>
       </c>
@@ -45108,7 +45161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>200</v>
       </c>
@@ -45164,7 +45217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>200</v>
       </c>
@@ -45223,7 +45276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>200</v>
       </c>
@@ -45282,7 +45335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>200</v>
       </c>
@@ -45341,7 +45394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>200</v>
       </c>
@@ -45400,7 +45453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>200</v>
       </c>
@@ -45459,7 +45512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>200</v>
       </c>
@@ -45518,7 +45571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>200</v>
       </c>
@@ -45577,7 +45630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>200</v>
       </c>
@@ -45636,7 +45689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>200</v>
       </c>
@@ -45695,7 +45748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>200</v>
       </c>
@@ -45754,7 +45807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>200</v>
       </c>
@@ -45813,7 +45866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>200</v>
       </c>
@@ -45872,7 +45925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>200</v>
       </c>
@@ -45931,7 +45984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>200</v>
       </c>
@@ -45990,7 +46043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>200</v>
       </c>
@@ -46049,7 +46102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>200</v>
       </c>
@@ -46108,7 +46161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>200</v>
       </c>
@@ -46164,7 +46217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>200</v>
       </c>
@@ -46220,7 +46273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>200</v>
       </c>
@@ -46279,7 +46332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>200</v>
       </c>
@@ -46338,7 +46391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>200</v>
       </c>
@@ -46397,7 +46450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>200</v>
       </c>
@@ -46456,7 +46509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>200</v>
       </c>
@@ -46515,7 +46568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>200</v>
       </c>
@@ -46574,7 +46627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>200</v>
       </c>
@@ -46633,7 +46686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>200</v>
       </c>
@@ -46692,7 +46745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>200</v>
       </c>
@@ -46751,7 +46804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>200</v>
       </c>
@@ -46810,7 +46863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>200</v>
       </c>
@@ -46866,7 +46919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>200</v>
       </c>
@@ -46925,7 +46978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>200</v>
       </c>
@@ -46984,7 +47037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G785">
         <v>1</v>
       </c>
@@ -47013,7 +47066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G786">
         <v>1</v>
       </c>
@@ -47042,7 +47095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G787">
         <v>1</v>
       </c>
@@ -47071,7 +47124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:198" x14ac:dyDescent="0.2">
       <c r="G788">
         <v>1</v>
       </c>
@@ -47100,7 +47153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>200</v>
       </c>
@@ -47159,7 +47212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>200</v>
       </c>
@@ -47218,7 +47271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>200</v>
       </c>
@@ -47277,7 +47330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>200</v>
       </c>
@@ -47333,7 +47386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>200</v>
       </c>
@@ -47389,7 +47442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>200</v>
       </c>
@@ -47448,7 +47501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>200</v>
       </c>
@@ -47507,7 +47560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>200</v>
       </c>
@@ -47563,7 +47616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>200</v>
       </c>
@@ -47622,7 +47675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>200</v>
       </c>
@@ -47678,7 +47731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>200</v>
       </c>
@@ -47734,7 +47787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:198" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:198" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>200</v>
       </c>
@@ -47793,7 +47846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="7:198" x14ac:dyDescent="0.15">
+    <row r="801" spans="7:198" x14ac:dyDescent="0.2">
       <c r="G801">
         <v>1</v>
       </c>
@@ -47829,16 +47882,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -47864,7 +47917,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -47890,7 +47943,7 @@
         <v>1.8598229885099999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -47916,7 +47969,7 @@
         <v>2.1409740448000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -47942,7 +47995,7 @@
         <v>1.55796504021</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -47968,7 +48021,7 @@
         <v>1.5080909729</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -47994,7 +48047,7 @@
         <v>2.2412049770400002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -48020,7 +48073,7 @@
         <v>1.3413910865800001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -48046,7 +48099,7 @@
         <v>1.5747029781299999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -48072,7 +48125,7 @@
         <v>1.44124794006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -48098,7 +48151,7 @@
         <v>2.8580391406999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -48124,7 +48177,7 @@
         <v>1.7413909435299999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>200</v>
       </c>
@@ -48150,7 +48203,7 @@
         <v>2.0082519054399999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -48176,7 +48229,7 @@
         <v>2.1912488937400001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -48202,7 +48255,7 @@
         <v>1.7079391479499999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -48228,7 +48281,7 @@
         <v>1.6417939662900001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -48254,7 +48307,7 @@
         <v>1.6081969737999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>200</v>
       </c>
@@ -48280,7 +48333,7 @@
         <v>1.54145598412</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -48306,7 +48359,7 @@
         <v>2.3914890289300001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -48332,7 +48385,7 @@
         <v>2.8915100097700002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -48358,7 +48411,7 @@
         <v>1.5915229320499999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -48384,7 +48437,7 @@
         <v>1.97488093376</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>200</v>
       </c>
@@ -48410,7 +48463,7 @@
         <v>2.7080810070000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -48436,7 +48489,7 @@
         <v>1.6414790153500001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -48462,7 +48515,7 @@
         <v>1.5409860610999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -48488,7 +48541,7 @@
         <v>2.6080849170699998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -48514,7 +48567,7 @@
         <v>1.72488999367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -48540,7 +48593,7 @@
         <v>2.8918151855500001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -48566,7 +48619,7 @@
         <v>1.4580760002099999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -48592,7 +48645,7 @@
         <v>1.5412831306500001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -48618,7 +48671,7 @@
         <v>1.75812315941</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -48644,7 +48697,7 @@
         <v>1.49902200699</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>200</v>
       </c>
@@ -48670,7 +48723,7 @@
         <v>2.4246089458500002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -48696,7 +48749,7 @@
         <v>1.4078960418699999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -48722,7 +48775,7 @@
         <v>2.4748418331100002</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -48748,7 +48801,7 @@
         <v>1.4581201076500001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -48774,7 +48827,7 @@
         <v>2.79143595695</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -48797,7 +48850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -48823,7 +48876,7 @@
         <v>2.7080869674699999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -48849,7 +48902,7 @@
         <v>1.5250599384300001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -48875,7 +48928,7 @@
         <v>1.8746590614300001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -48901,7 +48954,7 @@
         <v>1.5081679821</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -48927,7 +48980,7 @@
         <v>1.34109902382</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -48953,7 +49006,7 @@
         <v>1.8414890766100001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>200</v>
       </c>
@@ -48980,8 +49033,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H44">
-    <sortState ref="A2:H44">
+  <autoFilter ref="A1:H44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H44">
       <sortCondition ref="E1:E44"/>
     </sortState>
   </autoFilter>
@@ -48991,16 +49044,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -49026,7 +49079,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -49052,7 +49105,7 @@
         <v>1.9585609436</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
@@ -49078,7 +49131,7 @@
         <v>1.8748259544400001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
@@ -49104,7 +49157,7 @@
         <v>2.8079569339799999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -49127,7 +49180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -49150,7 +49203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -49176,7 +49229,7 @@
         <v>2.6253530979200002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -49202,7 +49255,7 @@
         <v>1.85803794861</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>200</v>
       </c>
@@ -49228,7 +49281,7 @@
         <v>1.47480821609</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>200</v>
       </c>
@@ -49254,7 +49307,7 @@
         <v>1.75790882111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -49280,7 +49333,7 @@
         <v>2.4414401054399999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -49306,7 +49359,7 @@
         <v>1.76549816132</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -49332,7 +49385,7 @@
         <v>1.5248041153</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -49358,7 +49411,7 @@
         <v>1.4580841064500001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -49384,7 +49437,7 @@
         <v>1.3413488864900001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -49410,7 +49463,7 @@
         <v>1.3411569595299999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -49436,7 +49489,7 @@
         <v>1.3915619850200001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -49462,7 +49515,7 @@
         <v>1.49137091637</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>200</v>
       </c>
@@ -49488,7 +49541,7 @@
         <v>2.0580840110800001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -49514,7 +49567,7 @@
         <v>1.4579641819</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -49540,7 +49593,7 @@
         <v>2.4240999221799999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>200</v>
       </c>
@@ -49566,7 +49619,7 @@
         <v>2.2748169899000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>200</v>
       </c>
@@ -49589,7 +49642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -49612,7 +49665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -49638,7 +49691,7 @@
         <v>1.5748631954200001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -49664,7 +49717,7 @@
         <v>1.92473697662</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -49690,7 +49743,7 @@
         <v>2.60803699493</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -49716,7 +49769,7 @@
         <v>1.7746059894599999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -49742,7 +49795,7 @@
         <v>2.2080228328699998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -49768,7 +49821,7 @@
         <v>2.2081360817000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -49794,7 +49847,7 @@
         <v>1.69163703918</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -49820,7 +49873,7 @@
         <v>1.92442798615</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -49846,7 +49899,7 @@
         <v>2.5414640903499999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -49872,7 +49925,7 @@
         <v>1.92472600937</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
@@ -49896,7 +49949,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -49922,7 +49975,7 @@
         <v>2.7413170337700001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -49949,8 +50002,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37">
-    <sortState ref="A2:H37">
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
       <sortCondition ref="E1:E37"/>
     </sortState>
   </autoFilter>
@@ -49960,16 +50013,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -49995,7 +50048,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -50021,7 +50074,7 @@
         <v>2.3749361038200001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -50047,7 +50100,7 @@
         <v>1.95807409286</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -50073,7 +50126,7 @@
         <v>1.7581360340100001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -50096,7 +50149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -50119,7 +50172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -50145,7 +50198,7 @@
         <v>2.4249119758600002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -50171,7 +50224,7 @@
         <v>1.5746519565599999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -50194,7 +50247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -50220,7 +50273,7 @@
         <v>1.80844902992</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -50244,7 +50297,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -50267,7 +50320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -50294,8 +50347,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13">
-    <sortState ref="A2:H13">
+  <autoFilter ref="A1:H13" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
       <sortCondition ref="E1:E13"/>
     </sortState>
   </autoFilter>
@@ -50305,16 +50358,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50346,7 +50399,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>112</v>
       </c>
@@ -50378,7 +50431,7 @@
         <v>2.5270431041700001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -50410,7 +50463,7 @@
         <v>0.44794082641600003</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -50442,7 +50495,7 @@
         <v>0.44752502441399999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -50474,7 +50527,7 @@
         <v>0.46388602256799999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -50506,7 +50559,7 @@
         <v>0.48096609115599998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -50538,7 +50591,7 @@
         <v>0.48069596290599997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -50571,10 +50624,10 @@
       </c>
       <c r="K8">
         <f ca="1">RANDBETWEEN(37,136)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -50606,7 +50659,7 @@
         <v>0.53110980987500001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -50638,7 +50691,7 @@
         <v>0.46249103546100001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -50670,7 +50723,7 @@
         <v>0.44565796852099998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -50702,7 +50755,7 @@
         <v>0.48071503639199997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -50734,7 +50787,7 @@
         <v>0.46412396431000003</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -50766,7 +50819,7 @@
         <v>0.51411604881299999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -50798,7 +50851,7 @@
         <v>0.44748306274400002</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -50830,7 +50883,7 @@
         <v>0.46427488326999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -50862,7 +50915,7 @@
         <v>0.51427197456399998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -50894,7 +50947,7 @@
         <v>0.58128595352199997</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -50926,7 +50979,7 @@
         <v>0.43118691444399998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -50958,7 +51011,7 @@
         <v>0.497699975967</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -50990,7 +51043,7 @@
         <v>0.46401786804200001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -51022,7 +51075,7 @@
         <v>0.46383714675900001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -51054,7 +51107,7 @@
         <v>0.69785594940200002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -51086,7 +51139,7 @@
         <v>0.49744892120400003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -51118,7 +51171,7 @@
         <v>0.613770008087</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -51150,7 +51203,7 @@
         <v>0.56441402435300003</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -51182,7 +51235,7 @@
         <v>0.53105401992800005</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -51214,7 +51267,7 @@
         <v>0.44785618781999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -51246,7 +51299,7 @@
         <v>0.52488780021699999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -51278,7 +51331,7 @@
         <v>0.44770097732500003</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -51310,7 +51363,7 @@
         <v>0.48087000846900002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -51342,7 +51395,7 @@
         <v>0.66387295722999995</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -51374,7 +51427,7 @@
         <v>0.88001489639300001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -51406,7 +51459,7 @@
         <v>0.49742698669399998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -51438,7 +51491,7 @@
         <v>0.547600030899</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -51470,7 +51523,7 @@
         <v>0.447266101837</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -51502,7 +51555,7 @@
         <v>0.48064112663300002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -51534,7 +51587,7 @@
         <v>0.63113498687699998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -51566,7 +51619,7 @@
         <v>0.61461186409000002</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -51598,7 +51651,7 @@
         <v>0.49777412414599997</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -51630,7 +51683,7 @@
         <v>0.53068900108299999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -51662,7 +51715,7 @@
         <v>0.58107209205599997</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -51694,7 +51747,7 @@
         <v>0.51483893394500002</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -51726,7 +51779,7 @@
         <v>0.53118395805399998</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -51758,7 +51811,7 @@
         <v>0.59771895408599995</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -51790,7 +51843,7 @@
         <v>0.69759702682500002</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -51822,7 +51875,7 @@
         <v>0.64772987365699997</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -51854,7 +51907,7 @@
         <v>0.514508008957</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -51886,7 +51939,7 @@
         <v>0.44796609878499999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -51918,7 +51971,7 @@
         <v>0.61461591720599995</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -51950,7 +52003,7 @@
         <v>0.58019995689399995</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -51982,7 +52035,7 @@
         <v>0.43101286888099999</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -52014,7 +52067,7 @@
         <v>0.396839857101</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -52046,7 +52099,7 @@
         <v>0.58142185211200004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -52078,7 +52131,7 @@
         <v>0.547659873962</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -52110,7 +52163,7 @@
         <v>0.43138718604999998</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -52142,7 +52195,7 @@
         <v>0.49809789657600001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -52174,7 +52227,7 @@
         <v>0.73119401931799999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -52206,7 +52259,7 @@
         <v>0.54784703254699996</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -52238,7 +52291,7 @@
         <v>0.48078107833900002</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -52270,7 +52323,7 @@
         <v>0.48130297660799998</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -52302,7 +52355,7 @@
         <v>0.480542898178</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -52334,7 +52387,7 @@
         <v>0.56439805030800005</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -52370,7 +52423,7 @@
         <v>0.55045413970933332</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -52402,7 +52455,7 @@
         <v>0.44745993614200003</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -52434,7 +52487,7 @@
         <v>0.59769892692600002</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -52466,7 +52519,7 @@
         <v>0.39796495437599999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -52498,7 +52551,7 @@
         <v>0.76448798179599997</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -52530,7 +52583,7 @@
         <v>0.51419901847799998</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -52562,7 +52615,7 @@
         <v>0.48094701766999998</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -52594,7 +52647,7 @@
         <v>0.56420612335200004</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -52626,7 +52679,7 @@
         <v>0.462332963943</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -52658,7 +52711,7 @@
         <v>0.52904796600299997</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -52690,7 +52743,7 @@
         <v>0.69723105430599996</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -52722,7 +52775,7 @@
         <v>0.44761109352099998</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -52754,7 +52807,7 @@
         <v>0.46448302269000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -52786,7 +52839,7 @@
         <v>0.58105111122099995</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -52818,7 +52871,7 @@
         <v>0.497617959976</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -52850,7 +52903,7 @@
         <v>0.48112678527800001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -52882,7 +52935,7 @@
         <v>0.48082399368299999</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -52914,7 +52967,7 @@
         <v>0.53100204467800005</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -52946,7 +52999,7 @@
         <v>0.48093390464800001</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -52978,7 +53031,7 @@
         <v>0.64762377738999999</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -53010,7 +53063,7 @@
         <v>0.48107814788800002</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -53042,7 +53095,7 @@
         <v>0.46438789367700001</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -53074,7 +53127,7 @@
         <v>0.56431484222399997</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -53106,7 +53159,7 @@
         <v>0.58122110366799995</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -53138,7 +53191,7 @@
         <v>0.48133587837199998</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -53170,7 +53223,7 @@
         <v>0.51414203643800005</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -53202,7 +53255,7 @@
         <v>0.58105492591899999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -53234,7 +53287,7 @@
         <v>0.53044319152800001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -53266,7 +53319,7 @@
         <v>0.497965812683</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -53298,7 +53351,7 @@
         <v>0.46427917480499997</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -53330,7 +53383,7 @@
         <v>0.63114595413200003</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -53362,7 +53415,7 @@
         <v>0.96443319320700005</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -53394,7 +53447,7 @@
         <v>0.58097195625300002</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -53426,7 +53479,7 @@
         <v>0.53111505508400003</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -53458,7 +53511,7 @@
         <v>0.41372895240800001</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -53490,7 +53543,7 @@
         <v>0.53040504455600002</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -53522,7 +53575,7 @@
         <v>0.52882504463199997</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -53554,7 +53607,7 @@
         <v>0.46454095840499998</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -53586,7 +53639,7 @@
         <v>0.53079700470000002</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -53618,7 +53671,7 @@
         <v>0.61422491073600005</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -53650,7 +53703,7 @@
         <v>0.52891397476199997</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -53682,7 +53735,7 @@
         <v>0.38063502311699998</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -53714,7 +53767,7 @@
         <v>0.36444020271299998</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -53746,7 +53799,7 @@
         <v>0.51429700851399995</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -53778,7 +53831,7 @@
         <v>0.64732718467700001</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -53810,7 +53863,7 @@
         <v>0.48066186904899999</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -53842,7 +53895,7 @@
         <v>0.58125782012899996</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -53874,7 +53927,7 @@
         <v>0.53114604949999999</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -53906,7 +53959,7 @@
         <v>0.58094096183800004</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -53938,7 +53991,7 @@
         <v>0.58130788803099998</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -53970,7 +54023,7 @@
         <v>0.51077795028700002</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -54002,7 +54055,7 @@
         <v>0.447701931</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -54034,7 +54087,7 @@
         <v>0.44760584831200001</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -54066,7 +54119,7 @@
         <v>0.58102202415500004</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -54098,7 +54151,7 @@
         <v>0.54739212989800001</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -54130,7 +54183,7 @@
         <v>0.46425390243499998</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -54162,7 +54215,7 @@
         <v>0.53495693206799999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -54194,7 +54247,7 @@
         <v>0.51447415351900005</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -54226,7 +54279,7 @@
         <v>0.39758300781200001</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -54258,7 +54311,7 @@
         <v>0.39768004417399999</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -54290,7 +54343,7 @@
         <v>0.44765901565600003</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -54322,7 +54375,7 @@
         <v>0.63116192817700001</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -54354,7 +54407,7 @@
         <v>0.49745702743499998</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -54386,7 +54439,7 @@
         <v>0.43109607696500002</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -54418,7 +54471,7 @@
         <v>0.43093299865700002</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -54450,7 +54503,7 @@
         <v>0.48130798339800002</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -54482,7 +54535,7 @@
         <v>0.58133506774900001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -54514,7 +54567,7 @@
         <v>0.430968046188</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -54546,7 +54599,7 @@
         <v>0.53108286857599996</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -54578,7 +54631,7 @@
         <v>0.54741501808199999</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -54610,7 +54663,7 @@
         <v>0.54761505126999999</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -54642,7 +54695,7 @@
         <v>0.49770712852499999</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -54674,7 +54727,7 @@
         <v>0.59741306304899999</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -54706,7 +54759,7 @@
         <v>0.46420693397500001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I139" t="s">
         <v>651</v>
       </c>
@@ -54715,7 +54768,7 @@
         <v>0.52453186600294066</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I140" t="s">
         <v>652</v>
       </c>
@@ -54724,7 +54777,7 @@
         <v>8.8619139042019152E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I141" t="s">
         <v>653</v>
       </c>
@@ -54736,7 +54789,7 @@
         <v>0.3029840183978928</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I142" t="s">
         <v>654</v>
       </c>
@@ -54745,7 +54798,7 @@
         <v>0.3029840183978928</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I144" t="s">
         <v>655</v>
       </c>
@@ -54755,8 +54808,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J137">
-    <sortState ref="A2:J137">
+  <autoFilter ref="A1:J137" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J137">
       <sortCondition sortBy="cellColor" ref="J1:J137" dxfId="0"/>
     </sortState>
   </autoFilter>
